--- a/pvdis/expdata/1000.xlsx
+++ b/pvdis/expdata/1000.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="5">
   <si>
     <t>Q2</t>
   </si>
   <si>
+    <t>RS</t>
+  </si>
+  <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>[0.00024343489150078688, 2.5118833635939386]</t>
+  </si>
+  <si>
+    <t>[0.0001362423986283271, 2.5118833635939386]</t>
   </si>
 </sst>
 </file>
@@ -377,34 +386,890 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>0.0002434348915007869</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0001362423986283271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2.511883363593939</v>
+        <v>140.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>2.511883363593939</v>
+        <v>140.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>140.7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>140.7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>140.7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>140.7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>140.7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>140.7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>140.7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>140.7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>140.7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>140.7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>140.7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>140.7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>140.7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>140.7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>140.7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>140.7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>140.7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>140.7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>140.7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>140.7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>140.7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>140.7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>140.7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>140.7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>140.7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>140.7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>140.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>140.7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>140.7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>140.7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>140.7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>140.7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>140.7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>140.7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>140.7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>140.7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>140.7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>140.7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>140.7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>140.7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>140.7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>140.7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>140.7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>140.7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>140.7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>140.7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>140.7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>140.7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>140.7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>140.7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>140.7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>140.7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>140.7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>140.7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>140.7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>140.7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>140.7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>140.7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>140.7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>140.7</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>140.7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>140.7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>140.7</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>140.7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>140.7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>140.7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>140.7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>140.7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>140.7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>140.7</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>140.7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>140.7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>140.7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>140.7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>140.7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>140.7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>140.7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/pvdis/expdata/1000.xlsx
+++ b/pvdis/expdata/1000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Q2</t>
   </si>
@@ -23,12 +23,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>[0.00024343489150078688, 2.5118833635939386]</t>
-  </si>
-  <si>
-    <t>[0.0001362423986283271, 2.5118833635939386]</t>
   </si>
 </sst>
 </file>
@@ -404,872 +398,872 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>2.511883363593939</v>
       </c>
       <c r="B2">
         <v>140.7</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>0.0001362423986283271</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3">
+        <v>2.511883363593939</v>
       </c>
       <c r="B3">
         <v>140.7</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3">
+        <v>0.0002434348915007869</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>2.511883363593939</v>
       </c>
       <c r="B4">
         <v>140.7</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4">
+        <v>0.0004349633223617825</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
+      <c r="A5">
+        <v>6.309572093256405</v>
       </c>
       <c r="B5">
         <v>140.7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C5">
+        <v>0.0004349633223617825</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>3</v>
+      <c r="A6">
+        <v>2.511883363593939</v>
       </c>
       <c r="B6">
         <v>140.7</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="C6">
+        <v>0.0007771813588989379</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>3</v>
+      <c r="A7">
+        <v>6.309572093256405</v>
       </c>
       <c r="B7">
         <v>140.7</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="C7">
+        <v>0.0007771813588989379</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>3</v>
+      <c r="A8">
+        <v>2.511883363593939</v>
       </c>
       <c r="B8">
         <v>140.7</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
+      <c r="C8">
+        <v>0.001388647658911359</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>3</v>
+      <c r="A9">
+        <v>6.309572093256405</v>
       </c>
       <c r="B9">
         <v>140.7</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
+      <c r="C9">
+        <v>0.001388647658911359</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>3</v>
+      <c r="A10">
+        <v>15.84894318243333</v>
       </c>
       <c r="B10">
         <v>140.7</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
+      <c r="C10">
+        <v>0.001388647658911359</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>3</v>
+      <c r="A11">
+        <v>2.511883363593939</v>
       </c>
       <c r="B11">
         <v>140.7</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="C11">
+        <v>0.002481197938536949</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>3</v>
+      <c r="A12">
+        <v>6.309572093256405</v>
       </c>
       <c r="B12">
         <v>140.7</v>
       </c>
-      <c r="C12" t="s">
-        <v>4</v>
+      <c r="C12">
+        <v>0.002481197938536949</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>3</v>
+      <c r="A13">
+        <v>15.84894318243333</v>
       </c>
       <c r="B13">
         <v>140.7</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="C13">
+        <v>0.002481197938536949</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>3</v>
+      <c r="A14">
+        <v>39.81073446609596</v>
       </c>
       <c r="B14">
         <v>140.7</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
+      <c r="C14">
+        <v>0.002481197938536949</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>3</v>
+      <c r="A15">
+        <v>2.511883363593939</v>
       </c>
       <c r="B15">
         <v>140.7</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
+      <c r="C15">
+        <v>0.004433338371611173</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>3</v>
+      <c r="A16">
+        <v>6.309572093256405</v>
       </c>
       <c r="B16">
         <v>140.7</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16">
+        <v>0.004433338371611173</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>3</v>
+      <c r="A17">
+        <v>15.84894318243333</v>
       </c>
       <c r="B17">
         <v>140.7</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
+      <c r="C17">
+        <v>0.004433338371611173</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>3</v>
+      <c r="A18">
+        <v>39.81073446609596</v>
       </c>
       <c r="B18">
         <v>140.7</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
+      <c r="C18">
+        <v>0.004433338371611173</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
+      <c r="A19">
+        <v>2.511883363593939</v>
       </c>
       <c r="B19">
         <v>140.7</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
+      <c r="C19">
+        <v>0.007921368966914746</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>3</v>
+      <c r="A20">
+        <v>6.309572093256405</v>
       </c>
       <c r="B20">
         <v>140.7</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
+      <c r="C20">
+        <v>0.007921368966914746</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>3</v>
+      <c r="A21">
+        <v>15.84894318243333</v>
       </c>
       <c r="B21">
         <v>140.7</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
+      <c r="C21">
+        <v>0.007921368966914746</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>3</v>
+      <c r="A22">
+        <v>39.81073446609596</v>
       </c>
       <c r="B22">
         <v>140.7</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
+      <c r="C22">
+        <v>0.007921368966914746</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>3</v>
+      <c r="A23">
+        <v>99.99987198641804</v>
       </c>
       <c r="B23">
         <v>140.7</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
+      <c r="C23">
+        <v>0.007921368966914746</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>3</v>
+      <c r="A24">
+        <v>2.511883363593939</v>
       </c>
       <c r="B24">
         <v>140.7</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
+      <c r="C24">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>3</v>
+      <c r="A25">
+        <v>6.309572093256405</v>
       </c>
       <c r="B25">
         <v>140.7</v>
       </c>
-      <c r="C25" t="s">
-        <v>4</v>
+      <c r="C25">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>3</v>
+      <c r="A26">
+        <v>15.84894318243333</v>
       </c>
       <c r="B26">
         <v>140.7</v>
       </c>
-      <c r="C26" t="s">
-        <v>4</v>
+      <c r="C26">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>3</v>
+      <c r="A27">
+        <v>39.81073446609596</v>
       </c>
       <c r="B27">
         <v>140.7</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
+      <c r="C27">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>3</v>
+      <c r="A28">
+        <v>99.99987198641804</v>
       </c>
       <c r="B28">
         <v>140.7</v>
       </c>
-      <c r="C28" t="s">
-        <v>4</v>
+      <c r="C28">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>3</v>
+      <c r="A29">
+        <v>251.1883363593938</v>
       </c>
       <c r="B29">
         <v>140.7</v>
       </c>
-      <c r="C29" t="s">
-        <v>4</v>
+      <c r="C29">
+        <v>0.0141536923822019</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>3</v>
+      <c r="A30">
+        <v>2.511883363593939</v>
       </c>
       <c r="B30">
         <v>140.7</v>
       </c>
-      <c r="C30" t="s">
-        <v>4</v>
+      <c r="C30">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>3</v>
+      <c r="A31">
+        <v>6.309572093256405</v>
       </c>
       <c r="B31">
         <v>140.7</v>
       </c>
-      <c r="C31" t="s">
-        <v>4</v>
+      <c r="C31">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>3</v>
+      <c r="A32">
+        <v>15.84894318243333</v>
       </c>
       <c r="B32">
         <v>140.7</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
+      <c r="C32">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>3</v>
+      <c r="A33">
+        <v>39.81073446609596</v>
       </c>
       <c r="B33">
         <v>140.7</v>
       </c>
-      <c r="C33" t="s">
-        <v>4</v>
+      <c r="C33">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>3</v>
+      <c r="A34">
+        <v>99.99987198641804</v>
       </c>
       <c r="B34">
         <v>140.7</v>
       </c>
-      <c r="C34" t="s">
-        <v>4</v>
+      <c r="C34">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>3</v>
+      <c r="A35">
+        <v>251.1883363593938</v>
       </c>
       <c r="B35">
         <v>140.7</v>
       </c>
-      <c r="C35" t="s">
-        <v>4</v>
+      <c r="C35">
+        <v>0.02528947363726656</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>3</v>
+      <c r="A36">
+        <v>2.511883363593939</v>
       </c>
       <c r="B36">
         <v>140.7</v>
       </c>
-      <c r="C36" t="s">
-        <v>4</v>
+      <c r="C36">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>3</v>
+      <c r="A37">
+        <v>6.309572093256405</v>
       </c>
       <c r="B37">
         <v>140.7</v>
       </c>
-      <c r="C37" t="s">
-        <v>4</v>
+      <c r="C37">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>3</v>
+      <c r="A38">
+        <v>15.84894318243333</v>
       </c>
       <c r="B38">
         <v>140.7</v>
       </c>
-      <c r="C38" t="s">
-        <v>4</v>
+      <c r="C38">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>3</v>
+      <c r="A39">
+        <v>39.81073446609596</v>
       </c>
       <c r="B39">
         <v>140.7</v>
       </c>
-      <c r="C39" t="s">
-        <v>4</v>
+      <c r="C39">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>3</v>
+      <c r="A40">
+        <v>99.99987198641804</v>
       </c>
       <c r="B40">
         <v>140.7</v>
       </c>
-      <c r="C40" t="s">
-        <v>4</v>
+      <c r="C40">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>3</v>
+      <c r="A41">
+        <v>251.1883363593938</v>
       </c>
       <c r="B41">
         <v>140.7</v>
       </c>
-      <c r="C41" t="s">
-        <v>4</v>
+      <c r="C41">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>3</v>
+      <c r="A42">
+        <v>630.9572093256403</v>
       </c>
       <c r="B42">
         <v>140.7</v>
       </c>
-      <c r="C42" t="s">
-        <v>4</v>
+      <c r="C42">
+        <v>0.04518660183007792</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>3</v>
+      <c r="A43">
+        <v>2.511883363593939</v>
       </c>
       <c r="B43">
         <v>140.7</v>
       </c>
-      <c r="C43" t="s">
-        <v>4</v>
+      <c r="C43">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>3</v>
+      <c r="A44">
+        <v>6.309572093256405</v>
       </c>
       <c r="B44">
         <v>140.7</v>
       </c>
-      <c r="C44" t="s">
-        <v>4</v>
+      <c r="C44">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>3</v>
+      <c r="A45">
+        <v>15.84894318243333</v>
       </c>
       <c r="B45">
         <v>140.7</v>
       </c>
-      <c r="C45" t="s">
-        <v>4</v>
+      <c r="C45">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>3</v>
+      <c r="A46">
+        <v>39.81073446609596</v>
       </c>
       <c r="B46">
         <v>140.7</v>
       </c>
-      <c r="C46" t="s">
-        <v>4</v>
+      <c r="C46">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>3</v>
+      <c r="A47">
+        <v>99.99987198641804</v>
       </c>
       <c r="B47">
         <v>140.7</v>
       </c>
-      <c r="C47" t="s">
-        <v>4</v>
+      <c r="C47">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>3</v>
+      <c r="A48">
+        <v>251.1883363593938</v>
       </c>
       <c r="B48">
         <v>140.7</v>
       </c>
-      <c r="C48" t="s">
-        <v>4</v>
+      <c r="C48">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>3</v>
+      <c r="A49">
+        <v>630.9572093256403</v>
       </c>
       <c r="B49">
         <v>140.7</v>
       </c>
-      <c r="C49" t="s">
-        <v>4</v>
+      <c r="C49">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>3</v>
+      <c r="A50">
+        <v>1584.894318243332</v>
       </c>
       <c r="B50">
         <v>140.7</v>
       </c>
-      <c r="C50" t="s">
-        <v>4</v>
+      <c r="C50">
+        <v>0.08073826797312411</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>3</v>
+      <c r="A51">
+        <v>2.511883363593939</v>
       </c>
       <c r="B51">
         <v>140.7</v>
       </c>
-      <c r="C51" t="s">
-        <v>4</v>
+      <c r="C51">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>3</v>
+      <c r="A52">
+        <v>6.309572093256405</v>
       </c>
       <c r="B52">
         <v>140.7</v>
       </c>
-      <c r="C52" t="s">
-        <v>4</v>
+      <c r="C52">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>3</v>
+      <c r="A53">
+        <v>15.84894318243333</v>
       </c>
       <c r="B53">
         <v>140.7</v>
       </c>
-      <c r="C53" t="s">
-        <v>4</v>
+      <c r="C53">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>3</v>
+      <c r="A54">
+        <v>39.81073446609596</v>
       </c>
       <c r="B54">
         <v>140.7</v>
       </c>
-      <c r="C54" t="s">
-        <v>4</v>
+      <c r="C54">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>3</v>
+      <c r="A55">
+        <v>99.99987198641804</v>
       </c>
       <c r="B55">
         <v>140.7</v>
       </c>
-      <c r="C55" t="s">
-        <v>4</v>
+      <c r="C55">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>3</v>
+      <c r="A56">
+        <v>251.1883363593938</v>
       </c>
       <c r="B56">
         <v>140.7</v>
       </c>
-      <c r="C56" t="s">
-        <v>4</v>
+      <c r="C56">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>3</v>
+      <c r="A57">
+        <v>630.9572093256403</v>
       </c>
       <c r="B57">
         <v>140.7</v>
       </c>
-      <c r="C57" t="s">
-        <v>4</v>
+      <c r="C57">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>3</v>
+      <c r="A58">
+        <v>1584.894318243332</v>
       </c>
       <c r="B58">
         <v>140.7</v>
       </c>
-      <c r="C58" t="s">
-        <v>4</v>
+      <c r="C58">
+        <v>0.1442609572337575</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>3</v>
+      <c r="A59">
+        <v>6.309572093256405</v>
       </c>
       <c r="B59">
         <v>140.7</v>
       </c>
-      <c r="C59" t="s">
-        <v>4</v>
+      <c r="C59">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>3</v>
+      <c r="A60">
+        <v>15.84894318243333</v>
       </c>
       <c r="B60">
         <v>140.7</v>
       </c>
-      <c r="C60" t="s">
-        <v>4</v>
+      <c r="C60">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>3</v>
+      <c r="A61">
+        <v>39.81073446609596</v>
       </c>
       <c r="B61">
         <v>140.7</v>
       </c>
-      <c r="C61" t="s">
-        <v>4</v>
+      <c r="C61">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>3</v>
+      <c r="A62">
+        <v>99.99987198641804</v>
       </c>
       <c r="B62">
         <v>140.7</v>
       </c>
-      <c r="C62" t="s">
-        <v>4</v>
+      <c r="C62">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>3</v>
+      <c r="A63">
+        <v>251.1883363593938</v>
       </c>
       <c r="B63">
         <v>140.7</v>
       </c>
-      <c r="C63" t="s">
-        <v>4</v>
+      <c r="C63">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>3</v>
+      <c r="A64">
+        <v>630.9572093256403</v>
       </c>
       <c r="B64">
         <v>140.7</v>
       </c>
-      <c r="C64" t="s">
-        <v>4</v>
+      <c r="C64">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>3</v>
+      <c r="A65">
+        <v>1584.894318243332</v>
       </c>
       <c r="B65">
         <v>140.7</v>
       </c>
-      <c r="C65" t="s">
-        <v>4</v>
+      <c r="C65">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>3</v>
+      <c r="A66">
+        <v>3981.073446609594</v>
       </c>
       <c r="B66">
         <v>140.7</v>
       </c>
-      <c r="C66" t="s">
-        <v>4</v>
+      <c r="C66">
+        <v>0.2577618038693864</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>3</v>
+      <c r="A67">
+        <v>15.84894318243333</v>
       </c>
       <c r="B67">
         <v>140.7</v>
       </c>
-      <c r="C67" t="s">
-        <v>4</v>
+      <c r="C67">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>3</v>
+      <c r="A68">
+        <v>39.81073446609596</v>
       </c>
       <c r="B68">
         <v>140.7</v>
       </c>
-      <c r="C68" t="s">
-        <v>4</v>
+      <c r="C68">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>3</v>
+      <c r="A69">
+        <v>99.99987198641804</v>
       </c>
       <c r="B69">
         <v>140.7</v>
       </c>
-      <c r="C69" t="s">
-        <v>4</v>
+      <c r="C69">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>3</v>
+      <c r="A70">
+        <v>251.1883363593938</v>
       </c>
       <c r="B70">
         <v>140.7</v>
       </c>
-      <c r="C70" t="s">
-        <v>4</v>
+      <c r="C70">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>3</v>
+      <c r="A71">
+        <v>630.9572093256403</v>
       </c>
       <c r="B71">
         <v>140.7</v>
       </c>
-      <c r="C71" t="s">
-        <v>4</v>
+      <c r="C71">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>3</v>
+      <c r="A72">
+        <v>1584.894318243332</v>
       </c>
       <c r="B72">
         <v>140.7</v>
       </c>
-      <c r="C72" t="s">
-        <v>4</v>
+      <c r="C72">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>3</v>
+      <c r="A73">
+        <v>3981.073446609594</v>
       </c>
       <c r="B73">
         <v>140.7</v>
       </c>
-      <c r="C73" t="s">
-        <v>4</v>
+      <c r="C73">
+        <v>0.4605623246478157</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>3</v>
+      <c r="A74">
+        <v>39.81073446609596</v>
       </c>
       <c r="B74">
         <v>140.7</v>
       </c>
-      <c r="C74" t="s">
-        <v>4</v>
+      <c r="C74">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>3</v>
+      <c r="A75">
+        <v>99.99987198641804</v>
       </c>
       <c r="B75">
         <v>140.7</v>
       </c>
-      <c r="C75" t="s">
-        <v>4</v>
+      <c r="C75">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>3</v>
+      <c r="A76">
+        <v>251.1883363593938</v>
       </c>
       <c r="B76">
         <v>140.7</v>
       </c>
-      <c r="C76" t="s">
-        <v>4</v>
+      <c r="C76">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>3</v>
+      <c r="A77">
+        <v>630.9572093256403</v>
       </c>
       <c r="B77">
         <v>140.7</v>
       </c>
-      <c r="C77" t="s">
-        <v>4</v>
+      <c r="C77">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>3</v>
+      <c r="A78">
+        <v>1584.894318243332</v>
       </c>
       <c r="B78">
         <v>140.7</v>
       </c>
-      <c r="C78" t="s">
-        <v>4</v>
+      <c r="C78">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>3</v>
+      <c r="A79">
+        <v>3981.073446609594</v>
       </c>
       <c r="B79">
         <v>140.7</v>
       </c>
-      <c r="C79" t="s">
-        <v>4</v>
+      <c r="C79">
+        <v>0.7846241138277615</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>3</v>
+      <c r="A80">
+        <v>9999.9871986418</v>
       </c>
       <c r="B80">
         <v>140.7</v>
       </c>
-      <c r="C80" t="s">
-        <v>4</v>
+      <c r="C80">
+        <v>0.7846241138277615</v>
       </c>
     </row>
   </sheetData>

--- a/pvdis/expdata/1000.xlsx
+++ b/pvdis/expdata/1000.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -40,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +195,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +230,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,170 +438,170 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.511883363593939</v>
       </c>
       <c r="B2">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C2">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D2">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E2">
-        <v>0.0004349633223617825</v>
+        <v>4.3496332236178252E-4</v>
       </c>
       <c r="F2">
-        <v>0.0003254</v>
+        <v>3.2539999999999999E-4</v>
       </c>
       <c r="G2">
-        <v>0.000581417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>5.8141699999999998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.511883363593939</v>
       </c>
       <c r="B3">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C3">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D3">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E3">
-        <v>0.0007771813588989379</v>
+        <v>7.7718135889893786E-4</v>
       </c>
       <c r="F3">
-        <v>0.000581417</v>
+        <v>5.8141699999999998E-4</v>
       </c>
       <c r="G3">
-        <v>0.00103886</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.03886E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B4">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C4">
         <v>10</v>
       </c>
       <c r="D4">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E4">
-        <v>0.0007771813588989379</v>
+        <v>7.7718135889893786E-4</v>
       </c>
       <c r="F4">
-        <v>0.000581417</v>
+        <v>5.8141699999999998E-4</v>
       </c>
       <c r="G4">
-        <v>0.00103886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1.03886E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.511883363593939</v>
       </c>
       <c r="B5">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C5">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D5">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E5">
-        <v>0.001388647658911359</v>
+        <v>1.3886476589113591E-3</v>
       </c>
       <c r="F5">
-        <v>0.00103886</v>
+        <v>1.03886E-3</v>
       </c>
       <c r="G5">
-        <v>0.00185621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.8562100000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B6">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C6">
         <v>10</v>
       </c>
       <c r="D6">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E6">
-        <v>0.001388647658911359</v>
+        <v>1.3886476589113591E-3</v>
       </c>
       <c r="F6">
-        <v>0.00103886</v>
+        <v>1.03886E-3</v>
       </c>
       <c r="G6">
-        <v>0.00185621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.8562100000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.511883363593939</v>
       </c>
       <c r="B7">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C7">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D7">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E7">
-        <v>0.002481197938536949</v>
+        <v>2.4811979385369492E-3</v>
       </c>
       <c r="F7">
-        <v>0.00185621</v>
+        <v>1.8562100000000001E-3</v>
       </c>
       <c r="G7">
-        <v>0.00331662</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>3.3166200000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B8">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E8">
-        <v>0.002481197938536949</v>
+        <v>2.4811979385369492E-3</v>
       </c>
       <c r="F8">
-        <v>0.00185621</v>
+        <v>1.8562100000000001E-3</v>
       </c>
       <c r="G8">
-        <v>0.00331662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>3.3166200000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -593,67 +610,67 @@
         <v>25.1189</v>
       </c>
       <c r="D9">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E9">
-        <v>0.002481197938536949</v>
+        <v>2.4811979385369492E-3</v>
       </c>
       <c r="F9">
-        <v>0.00185621</v>
+        <v>1.8562100000000001E-3</v>
       </c>
       <c r="G9">
-        <v>0.00331662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>3.3166200000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.511883363593939</v>
       </c>
       <c r="B10">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C10">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D10">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E10">
-        <v>0.004433338371611173</v>
+        <v>4.4333383716111726E-3</v>
       </c>
       <c r="F10">
-        <v>0.00331662</v>
+        <v>3.3166200000000002E-3</v>
       </c>
       <c r="G10">
-        <v>0.00592606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>5.9260600000000004E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B11">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E11">
-        <v>0.004433338371611173</v>
+        <v>4.4333383716111726E-3</v>
       </c>
       <c r="F11">
-        <v>0.00331662</v>
+        <v>3.3166200000000002E-3</v>
       </c>
       <c r="G11">
-        <v>0.00592606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>5.9260600000000004E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -662,90 +679,90 @@
         <v>25.1189</v>
       </c>
       <c r="D12">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E12">
-        <v>0.004433338371611173</v>
+        <v>4.4333383716111726E-3</v>
       </c>
       <c r="F12">
-        <v>0.00331662</v>
+        <v>3.3166200000000002E-3</v>
       </c>
       <c r="G12">
-        <v>0.00592606</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>5.9260600000000004E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B13">
         <v>25.1189</v>
       </c>
       <c r="C13">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D13">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E13">
-        <v>0.004433338371611173</v>
+        <v>4.4333383716111726E-3</v>
       </c>
       <c r="F13">
-        <v>0.00331662</v>
+        <v>3.3166200000000002E-3</v>
       </c>
       <c r="G13">
-        <v>0.00592606</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>5.9260600000000004E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.511883363593939</v>
       </c>
       <c r="B14">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C14">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D14">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E14">
-        <v>0.007921368966914746</v>
+        <v>7.921368966914746E-3</v>
       </c>
       <c r="F14">
-        <v>0.00592606</v>
+        <v>5.9260600000000004E-3</v>
       </c>
       <c r="G14">
-        <v>0.0105885</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.0588500000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B15">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E15">
-        <v>0.007921368966914746</v>
+        <v>7.921368966914746E-3</v>
       </c>
       <c r="F15">
-        <v>0.00592606</v>
+        <v>5.9260600000000004E-3</v>
       </c>
       <c r="G15">
-        <v>0.0105885</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1.0588500000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -754,90 +771,90 @@
         <v>25.1189</v>
       </c>
       <c r="D16">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E16">
-        <v>0.007921368966914746</v>
+        <v>7.921368966914746E-3</v>
       </c>
       <c r="F16">
-        <v>0.00592606</v>
+        <v>5.9260600000000004E-3</v>
       </c>
       <c r="G16">
-        <v>0.0105885</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1.0588500000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B17">
         <v>25.1189</v>
       </c>
       <c r="C17">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D17">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E17">
-        <v>0.007921368966914746</v>
+        <v>7.921368966914746E-3</v>
       </c>
       <c r="F17">
-        <v>0.00592606</v>
+        <v>5.9260600000000004E-3</v>
       </c>
       <c r="G17">
-        <v>0.0105885</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1.0588500000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.511883363593939</v>
       </c>
       <c r="B18">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C18">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D18">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E18">
-        <v>0.0141536923822019</v>
+        <v>1.4153692382201899E-2</v>
       </c>
       <c r="F18">
-        <v>0.0105885</v>
+        <v>1.0588500000000001E-2</v>
       </c>
       <c r="G18">
-        <v>0.0189193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1.89193E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B19">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
       <c r="D19">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E19">
-        <v>0.0141536923822019</v>
+        <v>1.4153692382201899E-2</v>
       </c>
       <c r="F19">
-        <v>0.0105885</v>
+        <v>1.0588500000000001E-2</v>
       </c>
       <c r="G19">
-        <v>0.0189193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>1.89193E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -846,113 +863,113 @@
         <v>25.1189</v>
       </c>
       <c r="D20">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E20">
-        <v>0.0141536923822019</v>
+        <v>1.4153692382201899E-2</v>
       </c>
       <c r="F20">
-        <v>0.0105885</v>
+        <v>1.0588500000000001E-2</v>
       </c>
       <c r="G20">
-        <v>0.0189193</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>1.89193E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B21">
         <v>25.1189</v>
       </c>
       <c r="C21">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D21">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E21">
-        <v>0.0141536923822019</v>
+        <v>1.4153692382201899E-2</v>
       </c>
       <c r="F21">
-        <v>0.0105885</v>
+        <v>1.0588500000000001E-2</v>
       </c>
       <c r="G21">
-        <v>0.0189193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.89193E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B22">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C22">
         <v>158.489</v>
       </c>
       <c r="D22">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E22">
-        <v>0.0141536923822019</v>
+        <v>1.4153692382201899E-2</v>
       </c>
       <c r="F22">
-        <v>0.0105885</v>
+        <v>1.0588500000000001E-2</v>
       </c>
       <c r="G22">
-        <v>0.0189193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>1.89193E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.511883363593939</v>
       </c>
       <c r="B23">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C23">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D23">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E23">
-        <v>0.02528947363726656</v>
+        <v>2.5289473637266559E-2</v>
       </c>
       <c r="F23">
-        <v>0.0189193</v>
+        <v>1.89193E-2</v>
       </c>
       <c r="G23">
-        <v>0.0338045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>3.3804500000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B24">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C24">
         <v>10</v>
       </c>
       <c r="D24">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E24">
-        <v>0.02528947363726656</v>
+        <v>2.5289473637266559E-2</v>
       </c>
       <c r="F24">
-        <v>0.0189193</v>
+        <v>1.89193E-2</v>
       </c>
       <c r="G24">
-        <v>0.0338045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>3.3804500000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B25">
         <v>10</v>
@@ -961,113 +978,113 @@
         <v>25.1189</v>
       </c>
       <c r="D25">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E25">
-        <v>0.02528947363726656</v>
+        <v>2.5289473637266559E-2</v>
       </c>
       <c r="F25">
-        <v>0.0189193</v>
+        <v>1.89193E-2</v>
       </c>
       <c r="G25">
-        <v>0.0338045</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>3.3804500000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B26">
         <v>25.1189</v>
       </c>
       <c r="C26">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D26">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E26">
-        <v>0.02528947363726656</v>
+        <v>2.5289473637266559E-2</v>
       </c>
       <c r="F26">
-        <v>0.0189193</v>
+        <v>1.89193E-2</v>
       </c>
       <c r="G26">
-        <v>0.0338045</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>3.3804500000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B27">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C27">
         <v>158.489</v>
       </c>
       <c r="D27">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E27">
-        <v>0.02528947363726656</v>
+        <v>2.5289473637266559E-2</v>
       </c>
       <c r="F27">
-        <v>0.0189193</v>
+        <v>1.89193E-2</v>
       </c>
       <c r="G27">
-        <v>0.0338045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>3.3804500000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.511883363593939</v>
       </c>
       <c r="B28">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C28">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D28">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E28">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F28">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G28">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B29">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C29">
         <v>10</v>
       </c>
       <c r="D29">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E29">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F29">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G29">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -1076,136 +1093,136 @@
         <v>25.1189</v>
       </c>
       <c r="D30">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E30">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F30">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G30">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B31">
         <v>25.1189</v>
       </c>
       <c r="C31">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D31">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E31">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F31">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G31">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B32">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C32">
         <v>158.489</v>
       </c>
       <c r="D32">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E32">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F32">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G32">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>251.1883363593938</v>
+        <v>251.18833635939379</v>
       </c>
       <c r="B33">
         <v>158.489</v>
       </c>
       <c r="C33">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="D33">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E33">
-        <v>0.04518660183007792</v>
+        <v>4.5186601830077923E-2</v>
       </c>
       <c r="F33">
-        <v>0.0338045</v>
+        <v>3.3804500000000001E-2</v>
       </c>
       <c r="G33">
-        <v>0.0604011</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>6.0401099999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.511883363593939</v>
       </c>
       <c r="B34">
-        <v>1.58489</v>
+        <v>1.5848899999999999</v>
       </c>
       <c r="C34">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="D34">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E34">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F34">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G34">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B35">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C35">
         <v>10</v>
       </c>
       <c r="D35">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E35">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F35">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G35">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B36">
         <v>10</v>
@@ -1214,136 +1231,136 @@
         <v>25.1189</v>
       </c>
       <c r="D36">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E36">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F36">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G36">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B37">
         <v>25.1189</v>
       </c>
       <c r="C37">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D37">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E37">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F37">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G37">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B38">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C38">
         <v>158.489</v>
       </c>
       <c r="D38">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E38">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F38">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G38">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>251.1883363593938</v>
+        <v>251.18833635939379</v>
       </c>
       <c r="B39">
         <v>158.489</v>
       </c>
       <c r="C39">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="D39">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E39">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F39">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G39">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>630.9572093256403</v>
+        <v>630.95720932564029</v>
       </c>
       <c r="B40">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="C40">
         <v>1000</v>
       </c>
       <c r="D40">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E40">
-        <v>0.08073826797312411</v>
+        <v>8.0738267973124112E-2</v>
       </c>
       <c r="F40">
-        <v>0.0604011</v>
+        <v>6.0401099999999999E-2</v>
       </c>
       <c r="G40">
-        <v>0.107923</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.10792300000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6.309572093256405</v>
+        <v>6.3095720932564046</v>
       </c>
       <c r="B41">
-        <v>3.98107</v>
+        <v>3.9810699999999999</v>
       </c>
       <c r="C41">
         <v>10</v>
       </c>
       <c r="D41">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E41">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F41">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G41">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B42">
         <v>10</v>
@@ -1352,113 +1369,113 @@
         <v>25.1189</v>
       </c>
       <c r="D42">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E42">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F42">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G42">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B43">
         <v>25.1189</v>
       </c>
       <c r="C43">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D43">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E43">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F43">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G43">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B44">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C44">
         <v>158.489</v>
       </c>
       <c r="D44">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E44">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F44">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G44">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>251.1883363593938</v>
+        <v>251.18833635939379</v>
       </c>
       <c r="B45">
         <v>158.489</v>
       </c>
       <c r="C45">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="D45">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E45">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F45">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G45">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>630.9572093256403</v>
+        <v>630.95720932564029</v>
       </c>
       <c r="B46">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="C46">
         <v>1000</v>
       </c>
       <c r="D46">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E46">
-        <v>0.1442609572337575</v>
+        <v>0.14426095723375751</v>
       </c>
       <c r="F46">
-        <v>0.107923</v>
+        <v>0.10792300000000001</v>
       </c>
       <c r="G46">
-        <v>0.192834</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.19283400000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15.84894318243333</v>
+        <v>15.848943182433329</v>
       </c>
       <c r="B47">
         <v>10</v>
@@ -1467,111 +1484,111 @@
         <v>25.1189</v>
       </c>
       <c r="D47">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E47">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F47">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G47">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B48">
         <v>25.1189</v>
       </c>
       <c r="C48">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D48">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E48">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F48">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G48">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B49">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C49">
         <v>158.489</v>
       </c>
       <c r="D49">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E49">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F49">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G49">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>251.1883363593938</v>
+        <v>251.18833635939379</v>
       </c>
       <c r="B50">
         <v>158.489</v>
       </c>
       <c r="C50">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="D50">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E50">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F50">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G50">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>630.9572093256403</v>
+        <v>630.95720932564029</v>
       </c>
       <c r="B51">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="C51">
         <v>1000</v>
       </c>
       <c r="D51">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E51">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F51">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G51">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1584.894318243332</v>
       </c>
@@ -1582,111 +1599,111 @@
         <v>2511.89</v>
       </c>
       <c r="D52">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E52">
-        <v>0.2577618038693864</v>
+        <v>0.25776180386938641</v>
       </c>
       <c r="F52">
-        <v>0.192834</v>
+        <v>0.19283400000000001</v>
       </c>
       <c r="G52">
         <v>0.344551</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>39.81073446609596</v>
+        <v>39.810734466095958</v>
       </c>
       <c r="B53">
         <v>25.1189</v>
       </c>
       <c r="C53">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="D53">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E53">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F53">
         <v>0.344551</v>
       </c>
       <c r="G53">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.61563500000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>99.99987198641804</v>
+        <v>99.999871986418043</v>
       </c>
       <c r="B54">
-        <v>63.0957</v>
+        <v>63.095700000000001</v>
       </c>
       <c r="C54">
         <v>158.489</v>
       </c>
       <c r="D54">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E54">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F54">
         <v>0.344551</v>
       </c>
       <c r="G54">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.61563500000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>251.1883363593938</v>
+        <v>251.18833635939379</v>
       </c>
       <c r="B55">
         <v>158.489</v>
       </c>
       <c r="C55">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="D55">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E55">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F55">
         <v>0.344551</v>
       </c>
       <c r="G55">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.61563500000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>630.9572093256403</v>
+        <v>630.95720932564029</v>
       </c>
       <c r="B56">
-        <v>398.107</v>
+        <v>398.10700000000003</v>
       </c>
       <c r="C56">
         <v>1000</v>
       </c>
       <c r="D56">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E56">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F56">
         <v>0.344551</v>
       </c>
       <c r="G56">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.61563500000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1584.894318243332</v>
       </c>
@@ -1697,21 +1714,21 @@
         <v>2511.89</v>
       </c>
       <c r="D57">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E57">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F57">
         <v>0.344551</v>
       </c>
       <c r="G57">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.61563500000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>3981.073446609594</v>
+        <v>3981.0734466095942</v>
       </c>
       <c r="B58">
         <v>2511.89</v>
@@ -1720,154 +1737,16 @@
         <v>6309.57</v>
       </c>
       <c r="D58">
-        <v>140.7</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="E58">
-        <v>0.4605623246478157</v>
+        <v>0.46056232464781571</v>
       </c>
       <c r="F58">
         <v>0.344551</v>
       </c>
       <c r="G58">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>39.81073446609596</v>
-      </c>
-      <c r="B59">
-        <v>25.1189</v>
-      </c>
-      <c r="C59">
-        <v>63.0957</v>
-      </c>
-      <c r="D59">
-        <v>140.7</v>
-      </c>
-      <c r="E59">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F59">
-        <v>0.344551</v>
-      </c>
-      <c r="G59">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>99.99987198641804</v>
-      </c>
-      <c r="B60">
-        <v>63.0957</v>
-      </c>
-      <c r="C60">
-        <v>158.489</v>
-      </c>
-      <c r="D60">
-        <v>140.7</v>
-      </c>
-      <c r="E60">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F60">
-        <v>0.344551</v>
-      </c>
-      <c r="G60">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>251.1883363593938</v>
-      </c>
-      <c r="B61">
-        <v>158.489</v>
-      </c>
-      <c r="C61">
-        <v>398.107</v>
-      </c>
-      <c r="D61">
-        <v>140.7</v>
-      </c>
-      <c r="E61">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F61">
-        <v>0.344551</v>
-      </c>
-      <c r="G61">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>630.9572093256403</v>
-      </c>
-      <c r="B62">
-        <v>398.107</v>
-      </c>
-      <c r="C62">
-        <v>1000</v>
-      </c>
-      <c r="D62">
-        <v>140.7</v>
-      </c>
-      <c r="E62">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F62">
-        <v>0.344551</v>
-      </c>
-      <c r="G62">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>1584.894318243332</v>
-      </c>
-      <c r="B63">
-        <v>1000</v>
-      </c>
-      <c r="C63">
-        <v>2511.89</v>
-      </c>
-      <c r="D63">
-        <v>140.7</v>
-      </c>
-      <c r="E63">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F63">
-        <v>0.344551</v>
-      </c>
-      <c r="G63">
-        <v>0.615635</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>3981.073446609594</v>
-      </c>
-      <c r="B64">
-        <v>2511.89</v>
-      </c>
-      <c r="C64">
-        <v>6309.57</v>
-      </c>
-      <c r="D64">
-        <v>140.7</v>
-      </c>
-      <c r="E64">
-        <v>0.4605623246478157</v>
-      </c>
-      <c r="F64">
-        <v>0.344551</v>
-      </c>
-      <c r="G64">
-        <v>0.615635</v>
+        <v>0.61563500000000004</v>
       </c>
     </row>
   </sheetData>
